--- a/biology/Botanique/Forêt_de_Bohême/Forêt_de_Bohême.xlsx
+++ b/biology/Botanique/Forêt_de_Bohême/Forêt_de_Bohême.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Boh%C3%AAme</t>
+          <t>Forêt_de_Bohême</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt de Bohême (en allemand : Böhmerwald ; en tchèque : Šumava) est un massif de moyennes montagnes qui se situe aux confins de l'Allemagne (Bavière), de l'Autriche et de la Tchéquie, à l'ouest des régions de Plzeň et de Bohême-du-Sud. C'est la troisième plus haute chaîne du vaste massif de Bohême après les monts des Géants (1 603 m) et le Hrubý Jeseník (1 491 m). Son point culminant est le Grosser Arber avec une altitude de 1 456 m. La ligne de crête principale du massif fait partie de la ligne de partage européenne majeure séparant le bassin de l'Elbe vers la mer du Nord de celui du Danube vers la mer Noire.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Boh%C3%AAme</t>
+          <t>Forêt_de_Bohême</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les écrits des géographes antiques Strabon et Ptolémée, la montagne est appelée Gabreta Silva, du gaulois : gabros (chèvre) ; au Moyen Âge, dans des actes du roi Louis le Germanique (en 853) ou de Henri II (en 1010) elle est évoquée sous le nom de forêt du Nord (Nordwald) en raison de sa situation géographique dans le Nord du duché de Bavière. Plus tard, la désignation « forêt de Bohême » (Behaimer walt) s'impose en ce qui concerne la zone boisée aux confins de la Bohême.
 Depuis que l'accent est mis sur les frontières politiques au XIXe siècle, le massif est divisé en segments plus réduits tels que la forêt de Bavière et la forêt du Haut-Palatinat.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Boh%C3%AAme</t>
+          <t>Forêt_de_Bohême</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +558,49 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La forêt de Bohême se situe au sud d'un vallon s'étendant de la ville de Cham en Bavière via Furth im Wald à Všeruby en Tchéquie, qui la sépare de la forêt du Haut-Palatinat. La limite méridionale du massif avec le plateau granitique d'Autriche se trouve à la dépression de la Feldaist, entre les cols de Vyšší Brod et de Kerschbaum en Haute-Autriche. Au centre du massif, du côté tchèque, a été créé le parc national de Šumava.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt de Bohême se situe au sud d'un vallon s'étendant de la ville de Cham en Bavière via Furth im Wald à Všeruby en Tchéquie, qui la sépare de la forêt du Haut-Palatinat. La limite méridionale du massif avec le plateau granitique d'Autriche se trouve à la dépression de la Feldaist, entre les cols de Vyšší Brod et de Kerschbaum en Haute-Autriche. Au centre du massif, du côté tchèque, a été créé le parc national de Šumava.
 Le tripoint Allemagne - Tchéquie - Autriche se trouve sur le col entre les sommets du Plöckenstein (Plechý) et du Bayerischer Plöckenstein.
-Sommets principaux
-Grosser Arber (1 456 m)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Forêt_de_Bohême</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Boh%C3%AAme</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sommets principaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Grosser Arber (1 456 m)
 Grosser Rachel (1 452 m)
 Plöckenstein ou Plechý (1 378 m)
 Lusen (1 373 m)
@@ -562,42 +613,113 @@
 Černá hora (1 315 m)
 Osser ou Ostrý (1 293 m)
 Pancíř (1 214 m)
-Špičák (1 202 m)
-Cours d'eau
-La Moldau (Vltava) et l'Otava, la Regen, le Chamb et l'Ilz descendent de la forêt de Bohême. La vallée de la Vydra est considérée comme la plus belle dans la montagne[réf. souhaitée]. Le Černé jezero (lac Noir) près de Železná Ruda est le plus grand et le plus profond des lacs naturels en Tchéquie.
-Gorges
-Frauenberg, entre Pilsen et Nuremberg
+Špičák (1 202 m)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Forêt_de_Bohême</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Boh%C3%AAme</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cours d'eau</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Moldau (Vltava) et l'Otava, la Regen, le Chamb et l'Ilz descendent de la forêt de Bohême. La vallée de la Vydra est considérée comme la plus belle dans la montagne[réf. souhaitée]. Le Černé jezero (lac Noir) près de Železná Ruda est le plus grand et le plus profond des lacs naturels en Tchéquie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Forêt_de_Bohême</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Boh%C3%AAme</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Gorges</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Frauenberg, entre Pilsen et Nuremberg
 Waldmünchen, entre Plzeň et Ratisbonne
 Eisenstein, entre Plzeň et Passau
 Philippsreut, entre Passau et Prague</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>For%C3%AAt_de_Boh%C3%AAme</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Forêt_de_Bohême</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Boh%C3%AAme</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Moyen Âge central, au cours de la colonisation germanique, des grandes parties de la région montagneuse ont été défrichées et peuplées par des paysans venant des zones voisines de la Bavière. Une définition précise de la ligne de démarcation entre la Bavière et la Bohême, deux États du Saint-Empire, n'a été établie qu'à partir de l'ère moderne. 
 Pendant des siècles, la forêt de Bohême était un point important de rencontres des voies de transport et de commerce, notamment du Sentier d'or reliant les villes de Passau et Linz sur le Danube à Prague. Au XVIIIe siècle surgissaient de nombreuses verreries ; la production de cristal de Bohême a rapidement dépassé celle du verre de Murano et a servi de modèle pour l'économie de manufacture dans la province suédoise de Småland.
